--- a/vignettes/cd_a_envoyer.xlsx
+++ b/vignettes/cd_a_envoyer.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
-    <t xml:space="preserve">Année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investissements spécifiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investissements intégrés</t>
+    <t xml:space="preserve">AnnÃ©e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investissements spÃ©cifiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investissements intÃ©grÃ©s</t>
   </si>
   <si>
     <t xml:space="preserve">Total investissements</t>
   </si>
   <si>
-    <t xml:space="preserve">Études</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total investissements et études</t>
+    <t xml:space="preserve">Ã‰tudes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total investissements et Ã©tudes</t>
   </si>
   <si>
     <t xml:space="preserve">2005</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Champ : France métropolitaine 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Dépenses courantes</t>
+    <t xml:space="preserve">DÃ©penses courantes</t>
   </si>
   <si>
     <t xml:space="preserve">Redevances, cotisations et taxes</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">312.540699404034</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonctionnement des équipements dédiés à la protection de l'environnement</t>
+    <t xml:space="preserve">Fonctionnement des Ã©quipements dÃ©diÃ©s Ã  la protection de l'environnement</t>
   </si>
   <si>
     <t xml:space="preserve">160.006</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">119.236377479567</t>
   </si>
   <si>
-    <t xml:space="preserve">Autres dépenses courantes</t>
+    <t xml:space="preserve">Autres dÃ©penses courantes</t>
   </si>
   <si>
     <t xml:space="preserve">14.631</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">41.7863695940792</t>
   </si>
   <si>
-    <t xml:space="preserve">Total dépenses courantes</t>
+    <t xml:space="preserve">Total dÃ©penses courantes</t>
   </si>
   <si>
     <t xml:space="preserve">493.048</t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve">377.2646109893</t>
   </si>
   <si>
-    <t xml:space="preserve">   dont liées à l'eau</t>
+    <t xml:space="preserve">   dont liÃ©es Ã  l'eau</t>
   </si>
   <si>
     <t xml:space="preserve">93.9586382653</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve">74.108683779</t>
   </si>
   <si>
-    <t xml:space="preserve">   dont liées aux déchets</t>
+    <t xml:space="preserve">   dont liÃ©es aux dÃ©chets</t>
   </si>
   <si>
     <t xml:space="preserve">130.455575102</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">119.2363774796</t>
   </si>
   <si>
-    <t xml:space="preserve">    coûts internes </t>
+    <t xml:space="preserve">    coÃ»ts internes </t>
   </si>
   <si>
     <t xml:space="preserve">86.4346849922</t>
